--- a/Exc4/Список ролей.xlsx
+++ b/Exc4/Список ролей.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iayz\PycharmProjects\architecture-sprint-7\Exc4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0633DDC-6275-40B3-B636-BE65C6BFFB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E455E8-718B-4369-AE1B-6DC7FA6AEBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11310" yWindow="5110" windowWidth="26550" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="C4:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.5"/>
